--- a/Database.xlsx
+++ b/Database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>db_timetable</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>many-to-one</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>start</t>
   </si>
 </sst>
 </file>
@@ -339,10 +333,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:T16"/>
+  <dimension ref="A2:T15"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J16" activeCellId="0" pane="topLeft" sqref="J16"/>
+      <selection activeCell="K12" activeCellId="0" pane="topLeft" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -572,40 +566,8 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
-      <c r="J15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="16">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
-      <c r="J16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="15"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="16"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G2:H2"/>
